--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -275,10 +275,10 @@
     <definedName name="_9.1.1._ログ保存方法">#REF!</definedName>
     <definedName name="_9.1.2._ジャーナル処理">#REF!</definedName>
     <definedName name="_A1">'[1]諸定義&amp;保守'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$59</definedName>
-    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$22</definedName>
-    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$43</definedName>
-    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Viewpoint_Function!$J$2:$J$60</definedName>
+    <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$23</definedName>
+    <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$44</definedName>
+    <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$69</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -313,7 +313,7 @@
     <definedName name="ＰＤ">#REF!</definedName>
     <definedName name="ＰＤ保守">#REF!</definedName>
     <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$18</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
     <definedName name="ＰＲ保守">#REF!</definedName>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1023,6 +1023,38 @@
   </si>
   <si>
     <t>Listening conversation screen</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>Content of listening conversation page</t>
+  </si>
+  <si>
+    <t>- Items: 
++ Back link
++ Conversation 1 field
++ Translate of conversation 1 field
++ Conversation 2 field
++ Translate of conversation 2 field</t>
+  </si>
+  <si>
+    <t>Conversation</t>
+  </si>
+  <si>
+    <t>Conversation is displayed</t>
+  </si>
+  <si>
+    <t>1.2.2.2</t>
+  </si>
+  <si>
+    <t>Translate</t>
+  </si>
+  <si>
+    <t>Click the "Dịch" section</t>
+  </si>
+  <si>
+    <t>Translateion is displayed</t>
   </si>
 </sst>
 </file>
@@ -3019,6 +3051,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3039,24 +3089,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3455,16 +3487,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3488,7 +3520,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1895475" y="581025"/>
+          <a:off x="180975" y="628650"/>
           <a:ext cx="5276850" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3515,6 +3547,61 @@
               <a:headEnd/>
               <a:tailEnd/>
             </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6372225" y="276225"/>
+          <a:ext cx="3895725" cy="3981450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -6207,7 +6294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -6227,14 +6314,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6249,12 +6336,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6266,12 +6353,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6280,15 +6367,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6297,11 +6384,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6324,10 +6411,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6345,10 +6432,10 @@
       <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6362,8 +6449,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6371,8 +6458,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6380,8 +6467,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6389,8 +6476,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6398,8 +6485,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6407,8 +6494,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6416,6 +6503,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6423,12 +6516,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6442,10 +6529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6669,141 +6756,171 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="44" customFormat="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45" t="s">
+    <row r="11" spans="1:12" s="44" customFormat="1" ht="81">
+      <c r="A11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="44" customFormat="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-    </row>
-    <row r="12" spans="1:12" s="44" customFormat="1">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="55"/>
-    </row>
-    <row r="13" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" s="44" customFormat="1">
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="L13" s="62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
+        <v>44</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="1:12" s="44" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="55"/>
-    </row>
-    <row r="15" spans="1:12" s="44" customFormat="1" ht="27">
+        <v>45</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="55"/>
+    </row>
+    <row r="16" spans="1:12" s="44" customFormat="1">
+      <c r="A16" s="47"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="49" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="H16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="57" t="s">
+      <c r="I16" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J16" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="56"/>
-    </row>
-    <row r="16" spans="1:12" s="44" customFormat="1">
-      <c r="A16" s="64"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
+      <c r="K16" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1">
-      <c r="A17" s="64"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="72"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" s="56" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1">
       <c r="A18" s="64"/>
@@ -6819,7 +6936,7 @@
       <c r="K18" s="66"/>
       <c r="L18" s="72"/>
     </row>
-    <row r="19" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
+    <row r="19" spans="1:12" s="44" customFormat="1">
       <c r="A19" s="64"/>
       <c r="B19" s="65"/>
       <c r="C19" s="65"/>
@@ -6831,9 +6948,9 @@
       <c r="I19" s="67"/>
       <c r="J19" s="68"/>
       <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-    </row>
-    <row r="20" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
+      <c r="L19" s="72"/>
+    </row>
+    <row r="20" spans="1:12" s="44" customFormat="1" ht="37.5" customHeight="1">
       <c r="A20" s="64"/>
       <c r="B20" s="65"/>
       <c r="C20" s="65"/>
@@ -6845,9 +6962,9 @@
       <c r="I20" s="67"/>
       <c r="J20" s="68"/>
       <c r="K20" s="66"/>
-      <c r="L20" s="72"/>
-    </row>
-    <row r="21" spans="1:12" s="44" customFormat="1">
+      <c r="L20" s="66"/>
+    </row>
+    <row r="21" spans="1:12" s="44" customFormat="1" ht="48" customHeight="1">
       <c r="A21" s="64"/>
       <c r="B21" s="65"/>
       <c r="C21" s="65"/>
@@ -6862,32 +6979,32 @@
       <c r="L21" s="72"/>
     </row>
     <row r="22" spans="1:12" s="44" customFormat="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="72"/>
     </row>
     <row r="23" spans="1:12" s="44" customFormat="1">
-      <c r="A23" s="64"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
     </row>
     <row r="24" spans="1:12" s="44" customFormat="1">
       <c r="A24" s="64"/>
@@ -6901,11 +7018,11 @@
       <c r="I24" s="67"/>
       <c r="J24" s="68"/>
       <c r="K24" s="66"/>
-      <c r="L24" s="72"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="25" spans="1:12" s="44" customFormat="1">
       <c r="A25" s="64"/>
-      <c r="B25" s="73"/>
+      <c r="B25" s="65"/>
       <c r="C25" s="65"/>
       <c r="D25" s="65"/>
       <c r="E25" s="66"/>
@@ -6917,33 +7034,33 @@
       <c r="K25" s="66"/>
       <c r="L25" s="72"/>
     </row>
-    <row r="26" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="26" spans="1:12" s="44" customFormat="1">
       <c r="A26" s="64"/>
       <c r="B26" s="73"/>
       <c r="C26" s="65"/>
       <c r="D26" s="65"/>
       <c r="E26" s="66"/>
       <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="65"/>
       <c r="I26" s="67"/>
       <c r="J26" s="68"/>
       <c r="K26" s="66"/>
       <c r="L26" s="72"/>
     </row>
-    <row r="27" spans="1:12" s="44" customFormat="1">
+    <row r="27" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="64"/>
-      <c r="B27" s="65"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="65"/>
       <c r="D27" s="65"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
-      <c r="G27" s="71"/>
+      <c r="G27" s="66"/>
       <c r="H27" s="65"/>
       <c r="I27" s="67"/>
       <c r="J27" s="68"/>
       <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="L27" s="72"/>
     </row>
     <row r="28" spans="1:12" s="44" customFormat="1">
       <c r="A28" s="64"/>
@@ -6957,7 +7074,7 @@
       <c r="I28" s="67"/>
       <c r="J28" s="68"/>
       <c r="K28" s="66"/>
-      <c r="L28" s="74"/>
+      <c r="L28" s="66"/>
     </row>
     <row r="29" spans="1:12" s="44" customFormat="1">
       <c r="A29" s="64"/>
@@ -6966,12 +7083,12 @@
       <c r="D29" s="65"/>
       <c r="E29" s="66"/>
       <c r="F29" s="66"/>
-      <c r="G29" s="75"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="65"/>
       <c r="I29" s="67"/>
       <c r="J29" s="68"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="74"/>
     </row>
     <row r="30" spans="1:12" s="44" customFormat="1">
       <c r="A30" s="64"/>
@@ -6980,7 +7097,7 @@
       <c r="D30" s="65"/>
       <c r="E30" s="66"/>
       <c r="F30" s="66"/>
-      <c r="G30" s="71"/>
+      <c r="G30" s="75"/>
       <c r="H30" s="65"/>
       <c r="I30" s="67"/>
       <c r="J30" s="68"/>
@@ -7015,7 +7132,7 @@
       <c r="K32" s="72"/>
       <c r="L32" s="72"/>
     </row>
-    <row r="33" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="33" spans="1:12" s="44" customFormat="1">
       <c r="A33" s="64"/>
       <c r="B33" s="65"/>
       <c r="C33" s="65"/>
@@ -7029,7 +7146,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="72"/>
     </row>
-    <row r="34" spans="1:12" s="44" customFormat="1">
+    <row r="34" spans="1:12" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A34" s="64"/>
       <c r="B34" s="65"/>
       <c r="C34" s="65"/>
@@ -7156,32 +7273,32 @@
       <c r="L42" s="72"/>
     </row>
     <row r="43" spans="1:12" s="44" customFormat="1">
-      <c r="A43" s="69"/>
-      <c r="B43" s="69"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
     </row>
     <row r="44" spans="1:12" s="44" customFormat="1">
-      <c r="A44" s="64"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
+      <c r="A44" s="69"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="70"/>
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
     </row>
     <row r="45" spans="1:12" s="44" customFormat="1">
       <c r="A45" s="64"/>
@@ -7195,11 +7312,11 @@
       <c r="I45" s="67"/>
       <c r="J45" s="68"/>
       <c r="K45" s="66"/>
-      <c r="L45" s="72"/>
+      <c r="L45" s="66"/>
     </row>
     <row r="46" spans="1:12" s="44" customFormat="1">
       <c r="A46" s="64"/>
-      <c r="B46" s="73"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="65"/>
       <c r="D46" s="65"/>
       <c r="E46" s="66"/>
@@ -7218,7 +7335,7 @@
       <c r="D47" s="65"/>
       <c r="E47" s="66"/>
       <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
+      <c r="G47" s="71"/>
       <c r="H47" s="65"/>
       <c r="I47" s="67"/>
       <c r="J47" s="68"/>
@@ -7325,8 +7442,8 @@
     </row>
     <row r="55" spans="1:12" s="44" customFormat="1">
       <c r="A55" s="64"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="65"/>
       <c r="E55" s="66"/>
       <c r="F55" s="66"/>
@@ -7335,14 +7452,14 @@
       <c r="I55" s="67"/>
       <c r="J55" s="68"/>
       <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
+      <c r="L55" s="72"/>
     </row>
     <row r="56" spans="1:12" s="44" customFormat="1">
       <c r="A56" s="64"/>
-      <c r="B56" s="73"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="73"/>
       <c r="D56" s="65"/>
-      <c r="E56" s="71"/>
+      <c r="E56" s="66"/>
       <c r="F56" s="66"/>
       <c r="G56" s="66"/>
       <c r="H56" s="65"/>
@@ -7368,15 +7485,15 @@
     <row r="58" spans="1:12" s="44" customFormat="1">
       <c r="A58" s="64"/>
       <c r="B58" s="73"/>
-      <c r="C58" s="65"/>
+      <c r="C58" s="73"/>
       <c r="D58" s="65"/>
       <c r="E58" s="71"/>
       <c r="F58" s="66"/>
-      <c r="G58" s="71"/>
+      <c r="G58" s="66"/>
       <c r="H58" s="65"/>
       <c r="I58" s="67"/>
       <c r="J58" s="68"/>
-      <c r="K58" s="72"/>
+      <c r="K58" s="66"/>
       <c r="L58" s="66"/>
     </row>
     <row r="59" spans="1:12" s="44" customFormat="1">
@@ -7390,16 +7507,16 @@
       <c r="H59" s="65"/>
       <c r="I59" s="67"/>
       <c r="J59" s="68"/>
-      <c r="K59" s="66"/>
+      <c r="K59" s="72"/>
       <c r="L59" s="66"/>
     </row>
     <row r="60" spans="1:12" s="44" customFormat="1">
       <c r="A60" s="64"/>
-      <c r="B60" s="65"/>
+      <c r="B60" s="73"/>
       <c r="C60" s="65"/>
       <c r="D60" s="65"/>
       <c r="E60" s="71"/>
-      <c r="F60" s="71"/>
+      <c r="F60" s="66"/>
       <c r="G60" s="71"/>
       <c r="H60" s="65"/>
       <c r="I60" s="67"/>
@@ -7422,32 +7539,32 @@
       <c r="L61" s="66"/>
     </row>
     <row r="62" spans="1:12" s="44" customFormat="1">
-      <c r="A62" s="69"/>
-      <c r="B62" s="69"/>
-      <c r="C62" s="69"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="70"/>
-      <c r="H62" s="70"/>
-      <c r="I62" s="70"/>
-      <c r="J62" s="70"/>
-      <c r="K62" s="70"/>
-      <c r="L62" s="69"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
     </row>
     <row r="63" spans="1:12" s="44" customFormat="1">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="76"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="76"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="68"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="76"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="70"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70"/>
+      <c r="K63" s="70"/>
+      <c r="L63" s="69"/>
     </row>
     <row r="64" spans="1:12" s="44" customFormat="1">
       <c r="A64" s="38"/>
@@ -7460,7 +7577,7 @@
       <c r="H64" s="65"/>
       <c r="I64" s="67"/>
       <c r="J64" s="68"/>
-      <c r="K64" s="77"/>
+      <c r="K64" s="76"/>
       <c r="L64" s="76"/>
     </row>
     <row r="65" spans="1:13" s="44" customFormat="1">
@@ -7469,7 +7586,7 @@
       <c r="C65" s="68"/>
       <c r="D65" s="65"/>
       <c r="E65" s="76"/>
-      <c r="F65" s="76"/>
+      <c r="F65" s="66"/>
       <c r="G65" s="76"/>
       <c r="H65" s="65"/>
       <c r="I65" s="67"/>
@@ -7506,33 +7623,32 @@
       <c r="L67" s="76"/>
     </row>
     <row r="68" spans="1:13" s="44" customFormat="1">
-      <c r="A68" s="69"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-      <c r="J68" s="70"/>
-      <c r="K68" s="70"/>
-      <c r="L68" s="69"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="77"/>
+      <c r="L68" s="76"/>
     </row>
     <row r="69" spans="1:13" s="44" customFormat="1">
-      <c r="A69" s="38"/>
-      <c r="B69" s="38"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="76"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="65"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="76"/>
-      <c r="M69" s="37"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="69"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+      <c r="J69" s="70"/>
+      <c r="K69" s="70"/>
+      <c r="L69" s="69"/>
     </row>
     <row r="70" spans="1:13" s="44" customFormat="1">
       <c r="A70" s="38"/>
@@ -7549,36 +7665,37 @@
       <c r="L70" s="76"/>
       <c r="M70" s="37"/>
     </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="69"/>
-      <c r="B71" s="69"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-      <c r="J71" s="70"/>
-      <c r="K71" s="70"/>
-      <c r="L71" s="69"/>
-      <c r="M71" s="44"/>
+    <row r="71" spans="1:13" s="44" customFormat="1">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="76"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="76"/>
+      <c r="M71" s="37"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="76"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="67"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="76"/>
-    </row>
-    <row r="73" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A72" s="69"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+      <c r="J72" s="70"/>
+      <c r="K72" s="70"/>
+      <c r="L72" s="69"/>
+      <c r="M72" s="44"/>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="38"/>
       <c r="B73" s="38"/>
       <c r="C73" s="68"/>
@@ -7591,35 +7708,35 @@
       <c r="J73" s="68"/>
       <c r="K73" s="77"/>
       <c r="L73" s="76"/>
-      <c r="M73" s="37"/>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="69"/>
-      <c r="B74" s="69"/>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-      <c r="J74" s="70"/>
-      <c r="K74" s="70"/>
-      <c r="L74" s="69"/>
+    </row>
+    <row r="74" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="76"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="76"/>
+      <c r="M74" s="37"/>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="64"/>
-      <c r="B75" s="73"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="65"/>
-      <c r="J75" s="78"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="66"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+      <c r="J75" s="70"/>
+      <c r="K75" s="70"/>
+      <c r="L75" s="69"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="64"/>
@@ -7628,43 +7745,43 @@
       <c r="D76" s="65"/>
       <c r="E76" s="66"/>
       <c r="F76" s="66"/>
-      <c r="G76" s="71"/>
+      <c r="G76" s="66"/>
       <c r="H76" s="65"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="68"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="78"/>
       <c r="K76" s="66"/>
       <c r="L76" s="66"/>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="69"/>
-      <c r="B77" s="69"/>
-      <c r="C77" s="69"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-      <c r="J77" s="70"/>
-      <c r="K77" s="70"/>
-      <c r="L77" s="69"/>
-      <c r="M77" s="44"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="73"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="71"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="67"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
-    </row>
-    <row r="79" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A78" s="69"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="69"/>
+      <c r="D78" s="69"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="70"/>
+      <c r="G78" s="70"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="70"/>
+      <c r="J78" s="70"/>
+      <c r="K78" s="70"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="44"/>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="38"/>
       <c r="B79" s="38"/>
       <c r="C79" s="38"/>
@@ -7677,9 +7794,8 @@
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
       <c r="L79" s="38"/>
-      <c r="M79" s="37"/>
-    </row>
-    <row r="80" spans="1:13">
+    </row>
+    <row r="80" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A80" s="38"/>
       <c r="B80" s="38"/>
       <c r="C80" s="38"/>
@@ -7692,7 +7808,7 @@
       <c r="J80" s="38"/>
       <c r="K80" s="38"/>
       <c r="L80" s="38"/>
-      <c r="M80" s="44"/>
+      <c r="M80" s="37"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="38"/>
@@ -7707,8 +7823,9 @@
       <c r="J81" s="38"/>
       <c r="K81" s="38"/>
       <c r="L81" s="38"/>
-    </row>
-    <row r="82" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+      <c r="M81" s="44"/>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="38"/>
       <c r="B82" s="38"/>
       <c r="C82" s="38"/>
@@ -7721,9 +7838,8 @@
       <c r="J82" s="38"/>
       <c r="K82" s="38"/>
       <c r="L82" s="38"/>
-      <c r="M82" s="37"/>
-    </row>
-    <row r="83" spans="1:13">
+    </row>
+    <row r="83" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A83" s="38"/>
       <c r="B83" s="38"/>
       <c r="C83" s="38"/>
@@ -7736,7 +7852,7 @@
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" s="38"/>
-      <c r="M83" s="44"/>
+      <c r="M83" s="37"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="38"/>
@@ -7753,7 +7869,7 @@
       <c r="L84" s="38"/>
       <c r="M84" s="44"/>
     </row>
-    <row r="85" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
+    <row r="85" spans="1:13">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="38"/>
@@ -7766,7 +7882,7 @@
       <c r="J85" s="38"/>
       <c r="K85" s="38"/>
       <c r="L85" s="38"/>
-      <c r="M85" s="37"/>
+      <c r="M85" s="44"/>
     </row>
     <row r="86" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A86" s="38"/>
@@ -7783,7 +7899,7 @@
       <c r="L86" s="38"/>
       <c r="M86" s="37"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" s="44" customFormat="1" ht="17.25" customHeight="1">
       <c r="A87" s="38"/>
       <c r="B87" s="38"/>
       <c r="C87" s="38"/>
@@ -7796,28 +7912,29 @@
       <c r="J87" s="38"/>
       <c r="K87" s="38"/>
       <c r="L87" s="38"/>
+      <c r="M87" s="37"/>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="64"/>
-      <c r="B88" s="73"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="71"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="66"/>
-      <c r="L88" s="66"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="64"/>
-      <c r="B89" s="65"/>
+      <c r="B89" s="73"/>
       <c r="C89" s="65"/>
       <c r="D89" s="65"/>
       <c r="E89" s="71"/>
-      <c r="F89" s="71"/>
+      <c r="F89" s="66"/>
       <c r="G89" s="71"/>
       <c r="H89" s="65"/>
       <c r="I89" s="67"/>
@@ -7825,15 +7942,29 @@
       <c r="K89" s="66"/>
       <c r="L89" s="66"/>
     </row>
-    <row r="94" spans="1:13" ht="37.5" customHeight="1"/>
+    <row r="90" spans="1:13">
+      <c r="A90" s="64"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="71"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="67"/>
+      <c r="J90" s="68"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
+    </row>
     <row r="95" spans="1:13" ht="37.5" customHeight="1"/>
     <row r="96" spans="1:13" ht="37.5" customHeight="1"/>
     <row r="97" ht="37.5" customHeight="1"/>
-    <row r="99" ht="18" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="104" ht="30" customHeight="1"/>
-    <row r="108" ht="44.25" customHeight="1"/>
-    <row r="109" ht="45" customHeight="1"/>
+    <row r="98" ht="37.5" customHeight="1"/>
+    <row r="100" ht="18" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="105" ht="30" customHeight="1"/>
+    <row r="109" ht="44.25" customHeight="1"/>
+    <row r="110" ht="45" customHeight="1"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="12">
@@ -7851,19 +7982,19 @@
     <mergeCell ref="K4:K5"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I74 I43 I71 I68 I62 I77">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I75 I44 I72 I69 I63 I78">
       <formula1>"Functional, Reliability, Usability, Effectiveness, Maintenance, Flexibility"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J74 J43 J71 J68 J62 J77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J75 J44 J72 J69 J63 J78">
       <formula1>"Requirement, Accuracy, Operation, Standards conformance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H88:H89 H23:H74 H76:H77 H8:H10 H13:H21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H89:H90 H24:H75 H77:H78 H8:H11 H14:H22">
       <formula1>"Normal,Abnormal,Boundary,Others"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I88:I89 I23:I42 I44:I61 I72:I73 I69:I70 I63:I67 I76 I8:I10 I13:I21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I89:I90 I24:I43 I45:I62 I73:I74 I70:I71 I64:I68 I77 I8:I11 I14:I22">
       <formula1>品質特性</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J63:J67 J69:J70 J76 J72:J73 J44:J61 J23:J42 J88:J89 J8:J10 J13:J21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J64:J68 J70:J71 J77 J73:J74 J45:J62 J24:J43 J89:J90 J8:J11 J14:J22">
       <formula1>INDIRECT($I8)</formula1>
     </dataValidation>
   </dataValidations>
@@ -7878,7 +8009,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Users\TuanNNSE02189\test view point\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
   </bookViews>
@@ -279,8 +284,8 @@
     <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$23</definedName>
     <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$44</definedName>
     <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$69</definedName>
+    <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="2">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -305,18 +310,18 @@
     <definedName name="l">[5]管理シート!$A$5:$A$30</definedName>
     <definedName name="Maintenance">Characteristics!$H$3:$H$5</definedName>
     <definedName name="Member">[6]Master_Schedule!$GW$131:$GW$140</definedName>
+    <definedName name="ＰＤ">#REF!</definedName>
+    <definedName name="ＰＤ保守">#REF!</definedName>
+    <definedName name="ＰＲ">#REF!</definedName>
+    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="PAGE00">[7]!PAGE00</definedName>
     <definedName name="PBNEC">#REF!</definedName>
     <definedName name="PBNEC2">#REF!</definedName>
     <definedName name="PBNEC2保守">#REF!</definedName>
     <definedName name="PBNEC保守">#REF!</definedName>
-    <definedName name="ＰＤ">#REF!</definedName>
-    <definedName name="ＰＤ保守">#REF!</definedName>
-    <definedName name="ＰＲ">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$18</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
-    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="q" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
@@ -482,7 +487,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +556,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="154">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -995,9 +1000,6 @@
     <t>UJD_VN_TestViewpoint_Listening conversation_v1.0_EN</t>
   </si>
   <si>
-    <t>Listening conversation Screen</t>
-  </si>
-  <si>
     <t>- Web title: Hội thoại
 - Display normally, there is not push, breaking font
 - Display text, textbox, button, color, background and arrangement</t>
@@ -1019,16 +1021,10 @@
     <t>Display conversation's content</t>
   </si>
   <si>
-    <t>Listening conversation</t>
-  </si>
-  <si>
     <t>Listening conversation screen</t>
   </si>
   <si>
     <t>1.1.1.3</t>
-  </si>
-  <si>
-    <t>Content of listening conversation page</t>
   </si>
   <si>
     <t>- Items: 
@@ -1056,26 +1052,32 @@
   <si>
     <t>Translateion is displayed</t>
   </si>
+  <si>
+    <t>Content of conversation page</t>
+  </si>
+  <si>
+    <t>Conversation Screen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="169" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="172" formatCode="#,##0.0&quot;人月&quot;"/>
-    <numFmt numFmtId="173" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="174" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="175" formatCode="#,##0_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="170" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="171" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0&quot;人月&quot;"/>
+    <numFmt numFmtId="175" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="68">
     <font>
@@ -1087,7 +1089,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2384,7 +2386,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -2426,15 +2428,15 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="8" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
@@ -2592,7 +2594,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2608,7 +2610,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="173" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -2687,19 +2689,19 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2709,8 +2711,8 @@
     <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="175" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
@@ -2728,7 +2730,7 @@
     <xf numFmtId="49" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="29" borderId="36">
+    <xf numFmtId="177" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="36"/>
@@ -2805,7 +2807,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3051,6 +3053,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3068,27 +3091,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3406,6 +3408,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6048,7 +6053,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6083,7 +6088,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6314,14 +6319,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6336,12 +6341,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6353,12 +6358,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6367,15 +6372,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6384,11 +6389,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6411,10 +6416,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6432,10 +6437,10 @@
       <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6449,8 +6454,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6458,8 +6463,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6467,8 +6472,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6476,8 +6481,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6485,8 +6490,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6494,8 +6499,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6503,12 +6508,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6516,6 +6515,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6532,7 +6537,7 @@
   <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6653,7 +6658,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6725,7 +6730,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="27">
@@ -6753,20 +6758,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="81">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -6781,7 +6786,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1">
@@ -6811,7 +6816,7 @@
       <c r="D13" s="60"/>
       <c r="E13" s="61"/>
       <c r="F13" s="51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
@@ -6830,7 +6835,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6842,10 +6847,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>142</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6857,7 +6862,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -6876,7 +6881,7 @@
       <c r="E16" s="63"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6888,23 +6893,23 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6916,10 +6921,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1">
@@ -8016,7 +8021,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Users\TuanNNSE02189\test view point\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
   </bookViews>
@@ -284,8 +279,8 @@
     <definedName name="_Toc350025729" localSheetId="1">Viewpoint_Function!$E$23</definedName>
     <definedName name="_Toc350025731" localSheetId="1">Viewpoint_Function!$E$44</definedName>
     <definedName name="_Toc350025733" localSheetId="1">Viewpoint_Function!$E$69</definedName>
+    <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="0">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
-    <definedName name="a" localSheetId="3">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="4">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="2">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
     <definedName name="a" localSheetId="1">{#N/A,#N/A,FALSE,"１）背景";#N/A,#N/A,FALSE,"２）前提事項";#N/A,#N/A,FALSE,"３）優先順位";#N/A,#N/A,FALSE,"４）改善サマリー";#N/A,#N/A,FALSE,"５）懸念-1";#N/A,#N/A,FALSE,"５）懸念-2";#N/A,#N/A,FALSE,"５）懸念-3";#N/A,#N/A,FALSE,"５）懸念-4";#N/A,#N/A,FALSE,"６）組織図";#N/A,#N/A,FALSE,"６）スケジュール"}</definedName>
@@ -310,18 +305,18 @@
     <definedName name="l">[5]管理シート!$A$5:$A$30</definedName>
     <definedName name="Maintenance">Characteristics!$H$3:$H$5</definedName>
     <definedName name="Member">[6]Master_Schedule!$GW$131:$GW$140</definedName>
-    <definedName name="ＰＤ">#REF!</definedName>
-    <definedName name="ＰＤ保守">#REF!</definedName>
-    <definedName name="ＰＲ">#REF!</definedName>
-    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="PAGE00">[7]!PAGE00</definedName>
     <definedName name="PBNEC">#REF!</definedName>
     <definedName name="PBNEC2">#REF!</definedName>
     <definedName name="PBNEC2保守">#REF!</definedName>
     <definedName name="PBNEC保守">#REF!</definedName>
+    <definedName name="ＰＤ">#REF!</definedName>
+    <definedName name="ＰＤ保守">#REF!</definedName>
+    <definedName name="ＰＲ">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Viewpoint_Function!$A$1:$L$18</definedName>
     <definedName name="_xlnm.Print_Area">#N/A</definedName>
     <definedName name="_xlnm.Print_Titles">[8]概略見積（資金）!$A$1:$IS$2</definedName>
+    <definedName name="ＰＲ保守">#REF!</definedName>
     <definedName name="q" localSheetId="3" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="4" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
     <definedName name="q" localSheetId="2" hidden="1">{"ﾏｯﾋﾟﾝｸﾞ_ｿｰｽ１",#N/A,FALSE,"apolo概念ﾜｰｸ";#N/A,#N/A,FALSE,"apolo概念ﾜｰｸ"}</definedName>
@@ -487,7 +482,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0" shapeId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1005,10 +1000,6 @@
 - Display text, textbox, button, color, background and arrangement</t>
   </si>
   <si>
-    <t xml:space="preserve">- Items: conversations link
-</t>
-  </si>
-  <si>
     <t>Choose the conversation</t>
   </si>
   <si>
@@ -1027,14 +1018,6 @@
     <t>1.1.1.3</t>
   </si>
   <si>
-    <t>- Items: 
-+ Back link
-+ Conversation 1 field
-+ Translate of conversation 1 field
-+ Conversation 2 field
-+ Translate of conversation 2 field</t>
-  </si>
-  <si>
     <t>Conversation</t>
   </si>
   <si>
@@ -1050,13 +1033,25 @@
     <t>Click the "Dịch" section</t>
   </si>
   <si>
-    <t>Translateion is displayed</t>
-  </si>
-  <si>
     <t>Content of conversation page</t>
   </si>
   <si>
     <t>Conversation Screen</t>
+  </si>
+  <si>
+    <t>- Display full item ( conversation's link)
+- Title is centered
+- All items is left-aligned
+- Text's color is black</t>
+  </si>
+  <si>
+    <t>- Display full item
+- Title is centered
+- All items is left-aligned
+- Text's color is black</t>
+  </si>
+  <si>
+    <t>Translatetion is displayed</t>
   </si>
 </sst>
 </file>
@@ -1064,20 +1059,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="14">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="170" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
-    <numFmt numFmtId="171" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0&quot;人月&quot;"/>
-    <numFmt numFmtId="175" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="176" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;｣&quot;_);[Red]\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00&quot;｣&quot;_);\(#,##0.00&quot;｣&quot;\)"/>
+    <numFmt numFmtId="169" formatCode="&quot;｣&quot;#,##0.00;\-&quot;｣&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0&quot;人月&quot;"/>
+    <numFmt numFmtId="173" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="174" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
+    <numFmt numFmtId="175" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="68">
     <font>
@@ -1089,7 +1084,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2386,7 +2381,7 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -2428,15 +2423,15 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="4" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="8" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
@@ -2594,7 +2589,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2610,7 +2605,7 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="173" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="36" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
@@ -2689,19 +2684,19 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
-    <xf numFmtId="174" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="172" fontId="49" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="9" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2711,8 +2706,8 @@
     <xf numFmtId="0" fontId="52" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
+    <xf numFmtId="174" fontId="12" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
@@ -2730,7 +2725,7 @@
     <xf numFmtId="49" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="29" borderId="36">
+    <xf numFmtId="175" fontId="12" fillId="29" borderId="36">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="36"/>
@@ -2807,7 +2802,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3053,6 +3048,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3073,24 +3086,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6053,7 +6048,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6088,7 +6083,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6319,14 +6314,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="103"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6341,12 +6336,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6358,12 +6353,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6372,15 +6367,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6389,11 +6384,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="105"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6416,10 +6411,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="100" t="s">
+      <c r="C9" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="101"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6437,10 +6432,10 @@
       <c r="B10" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6454,8 +6449,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="110"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6463,8 +6458,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="112"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6472,8 +6467,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="110"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6481,8 +6476,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6490,8 +6485,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="110"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6499,8 +6494,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6508,6 +6503,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6515,12 +6516,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6537,7 +6532,7 @@
   <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6658,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6733,7 +6728,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="27">
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -6758,20 +6753,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="44" customFormat="1" ht="81">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="44" customFormat="1" ht="54">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -6786,7 +6781,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1">
@@ -6816,7 +6811,7 @@
       <c r="D13" s="60"/>
       <c r="E13" s="61"/>
       <c r="F13" s="51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
@@ -6835,7 +6830,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6847,10 +6842,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>141</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6862,7 +6857,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -6881,7 +6876,7 @@
       <c r="E16" s="63"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6893,23 +6888,23 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6921,10 +6916,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1">
@@ -8014,14 +8009,14 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
@@ -1039,19 +1039,19 @@
     <t>Conversation Screen</t>
   </si>
   <si>
+    <t>Translatetion is displayed</t>
+  </si>
+  <si>
     <t>- Display full item ( conversation's link)
-- Title is centered
+- Title is centered, color is blue
 - All items is left-aligned
 - Text's color is black</t>
   </si>
   <si>
     <t>- Display full item
-- Title is centered
+- Title is centered, color is blue
 - All items is left-aligned
 - Text's color is black</t>
-  </si>
-  <si>
-    <t>Translatetion is displayed</t>
   </si>
 </sst>
 </file>
@@ -3485,18 +3485,18 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473230</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3520,16 +3520,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="180975" y="628650"/>
-          <a:ext cx="5276850" cy="2857500"/>
+          <a:off x="600075" y="685800"/>
+          <a:ext cx="5359555" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -3538,16 +3535,6 @@
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
@@ -3555,20 +3542,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3588,8 +3575,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6372225" y="276225"/>
-          <a:ext cx="3895725" cy="3981450"/>
+          <a:off x="6858000" y="419100"/>
+          <a:ext cx="4981575" cy="4080303"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6532,7 +6519,7 @@
   <dimension ref="A1:M110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6753,7 +6740,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="54">
@@ -6781,7 +6768,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1">
@@ -6919,7 +6906,7 @@
         <v>148</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1">
@@ -8009,7 +7996,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Listening conversation_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -986,9 +986,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1052,6 +1049,9 @@
 - Title is centered, color is blue
 - All items is left-aligned
 - Text's color is black</t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3048,6 +3048,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3065,27 +3086,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6281,8 +6281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6301,14 +6301,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6323,12 +6323,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6340,12 +6340,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="110"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6354,28 +6354,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="112" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="C6" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="111"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6398,10 +6398,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6417,12 +6417,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="103"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6431,13 +6431,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="103"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="110"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6445,8 +6445,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="112"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6454,8 +6454,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="110"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6463,8 +6463,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6472,8 +6472,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="110"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6481,8 +6481,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6490,12 +6490,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6503,6 +6497,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6518,7 +6518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -6640,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6712,7 +6712,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="54">
@@ -6740,20 +6740,20 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1" ht="54">
       <c r="A11" s="47"/>
       <c r="B11" s="48"/>
       <c r="C11" s="49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H11" s="49" t="s">
         <v>35</v>
@@ -6768,7 +6768,7 @@
         <v>41</v>
       </c>
       <c r="L11" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="44" customFormat="1">
@@ -6798,7 +6798,7 @@
       <c r="D13" s="60"/>
       <c r="E13" s="61"/>
       <c r="F13" s="51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
@@ -6817,7 +6817,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6829,10 +6829,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="62" t="s">
         <v>140</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6844,7 +6844,7 @@
       <c r="D15" s="60"/>
       <c r="E15" s="61"/>
       <c r="F15" s="51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -6863,7 +6863,7 @@
       <c r="E16" s="63"/>
       <c r="F16" s="56"/>
       <c r="G16" s="56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H16" s="49" t="s">
         <v>35</v>
@@ -6875,23 +6875,23 @@
         <v>37</v>
       </c>
       <c r="K16" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L16" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="44" customFormat="1">
       <c r="A17" s="47"/>
       <c r="B17" s="48"/>
       <c r="C17" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="49"/>
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6903,10 +6903,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1">
@@ -8003,7 +8003,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
